--- a/data/service_en.xlsx
+++ b/data/service_en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV-master\ENG\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9ECB687-4FBC-48B3-AF0A-7025CA8BD28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5DBE52-4B0C-4C70-A0ED-C1DBDC21FA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>what</t>
   </si>
@@ -37,39 +37,12 @@
     <t>why</t>
   </si>
   <si>
-    <t>Frontiers in Psychology</t>
-  </si>
-  <si>
     <t>Review Editor</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Universidad Nacional de Colombia</t>
-  </si>
-  <si>
-    <t>Human Ethology Bulletin</t>
-  </si>
-  <si>
-    <t>Journal of Nonverbal Behavior</t>
-  </si>
-  <si>
-    <t>Royal Society Open Science</t>
-  </si>
-  <si>
-    <t>Basic and Applied Social Psychology</t>
-  </si>
-  <si>
-    <t>Proceedings of the Royal Society B: Biological Sciences</t>
-  </si>
-  <si>
-    <t>Specialty section on Evolutionary Psychology</t>
-  </si>
-  <si>
-    <t>Ad Hoc Reviewer</t>
-  </si>
-  <si>
     <t>2019 - Present</t>
   </si>
   <si>
@@ -103,37 +76,67 @@
     <t>2020 - 2021</t>
   </si>
   <si>
-    <t>Philosophical Transactions of the Royal Society B</t>
-  </si>
-  <si>
-    <t>Theme Issue "Voice modulation: from origin and mechanism to social impact"</t>
-  </si>
-  <si>
-    <t>Summa Psicológica</t>
-  </si>
-  <si>
-    <t>Evolution and Human Behavior</t>
-  </si>
-  <si>
-    <t>Scientific Reports</t>
-  </si>
-  <si>
-    <t>Perception</t>
-  </si>
-  <si>
-    <t>Cortex</t>
-  </si>
-  <si>
-    <t>MinCiencias</t>
-  </si>
-  <si>
-    <t>Evolutionary Psychology</t>
-  </si>
-  <si>
-    <t>Edited by Juan David Leongomez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman, &amp; Jaroslava Varella Valentova</t>
-  </si>
-  <si>
-    <t>PLOS ONE</t>
+    <t>\textit{Ad Hoc} Reviewer</t>
+  </si>
+  <si>
+    <t>\href{https://www.frontiersin.org/journals/psychology}{Frontiers in Psychology}</t>
+  </si>
+  <si>
+    <t>\href{https://royalsocietypublishing.org/journal/rstb}{Philosophical Transactions of the Royal Society B: Biological Sciences}</t>
+  </si>
+  <si>
+    <t>Theme Issue \textbf{\textit{Voice modulation: from origin and mechanism to social impact}} (\href{https://royalsocietypublishing.org/toc/rstb/2021/376/1840}{\textbf{Parte 1}}, \href{https://royalsocietypublishing.org/toc/rstb/2022/377/1841}{\textbf{Parte 2}})</t>
+  </si>
+  <si>
+    <t>Editado por Juan David Leongómez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman y Jaroslava Varella Valentova</t>
+  </si>
+  <si>
+    <t>Specialty section on \href{https://www.frontiersin.org/journals/psychology/sections/evolutionary-psychology}{Evolutionary Psychology}</t>
+  </si>
+  <si>
+    <t>Perfil \href{https://loop.frontiersin.org/people/438954/overview}{Loop}</t>
+  </si>
+  <si>
+    <t>\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B: Biological Sciences}</t>
+  </si>
+  <si>
+    <t>\href{https://royalsocietypublishing.org/journal/rsos}{Royal Society Open Science}</t>
+  </si>
+  <si>
+    <t>\href{https://journals.plos.org/plosone/}{PLOS ONE}</t>
+  </si>
+  <si>
+    <t>\href{https://www.sciencedirect.com/journal/evolution-and-human-behavior}{Evolution and Human Behavior}</t>
+  </si>
+  <si>
+    <t>\href{https://www.nature.com/srep/}{Scientific Reports}</t>
+  </si>
+  <si>
+    <t>\href{https://www.sciencedirect.com/journal/cortex}{Cortex}</t>
+  </si>
+  <si>
+    <t>\href{https://www.springer.com/journal/10919/}{Journal of Nonverbal Behavior}</t>
+  </si>
+  <si>
+    <t>\href{https://journals.sagepub.com/home/pec}{Perception}</t>
+  </si>
+  <si>
+    <t>\href{https://www.tandfonline.com/journals/hbas20}{Basic and Applied Social Psychology}</t>
+  </si>
+  <si>
+    <t>\href{https://journals.sagepub.com/home/evp}{Evolutionary Psychology}</t>
+  </si>
+  <si>
+    <t>\href{http://sumapsicologica.konradlorenz.edu.co/}{Summa Psicológica}</t>
+  </si>
+  <si>
+    <t>\href{https://ishe.org/human-ethology/}{Human Ethology}</t>
+  </si>
+  <si>
+    <t>\href{https://minciencias.gov.co/}{Minciencias}</t>
+  </si>
+  <si>
+    <t>\href{https://unal.edu.co/}{Universidad Nacional de Colombia}</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -977,183 +980,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.140625" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="107.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
+      <c r="E19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/service_en.xlsx
+++ b/data/service_en.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5DBE52-4B0C-4C70-A0ED-C1DBDC21FA3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB5F3EB-B410-4B71-8C37-CA4D94F1C71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>Journals Include</t>
   </si>
   <si>
-    <t>Editorial Boards</t>
-  </si>
-  <si>
     <t>Colombian Institutions</t>
   </si>
   <si>
@@ -88,15 +85,9 @@
     <t>Theme Issue \textbf{\textit{Voice modulation: from origin and mechanism to social impact}} (\href{https://royalsocietypublishing.org/toc/rstb/2021/376/1840}{\textbf{Parte 1}}, \href{https://royalsocietypublishing.org/toc/rstb/2022/377/1841}{\textbf{Parte 2}})</t>
   </si>
   <si>
-    <t>Editado por Juan David Leongómez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman y Jaroslava Varella Valentova</t>
-  </si>
-  <si>
     <t>Specialty section on \href{https://www.frontiersin.org/journals/psychology/sections/evolutionary-psychology}{Evolutionary Psychology}</t>
   </si>
   <si>
-    <t>Perfil \href{https://loop.frontiersin.org/people/438954/overview}{Loop}</t>
-  </si>
-  <si>
     <t>\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B: Biological Sciences}</t>
   </si>
   <si>
@@ -137,6 +128,15 @@
   </si>
   <si>
     <t>\href{https://unal.edu.co/}{Universidad Nacional de Colombia}</t>
+  </si>
+  <si>
+    <t>Guest editorial team</t>
+  </si>
+  <si>
+    <t>Edited by Juan David Leongómez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman \&amp; Jaroslava Varella Valentova</t>
+  </si>
+  <si>
+    <t>\href{https://loop.frontiersin.org/people/438954/overview}{Loop} profile</t>
   </si>
 </sst>
 </file>
@@ -983,7 +983,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1014,19 +1014,19 @@
     </row>
     <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1046,16 +1046,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E5" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1066,13 +1066,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1083,7 +1083,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,7 +1092,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1101,7 +1101,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,7 +1110,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,7 +1119,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1130,7 +1130,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,7 +1139,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1148,7 +1148,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,7 +1159,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1168,7 +1168,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,7 +1179,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1188,7 +1188,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1202,10 +1202,10 @@
         <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,7 +1214,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/service_en.xlsx
+++ b/data/service_en.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AB5F3EB-B410-4B71-8C37-CA4D94F1C71D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F7981E-A71F-4E94-A5C9-56036CEF8A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>what</t>
   </si>
@@ -137,6 +137,27 @@
   </si>
   <si>
     <t>\href{https://loop.frontiersin.org/people/438954/overview}{Loop} profile</t>
+  </si>
+  <si>
+    <t>Recommender (editor)</t>
+  </si>
+  <si>
+    <t>Since 2023</t>
+  </si>
+  <si>
+    <t>\href{https://rr.peercommunityin.org/}{PCI Registered Reports}</t>
+  </si>
+  <si>
+    <t>Editorial team</t>
+  </si>
+  <si>
+    <t>Recommender</t>
+  </si>
+  <si>
+    <t>Issue Stage 1 and Stage 2 recommendations</t>
+  </si>
+  <si>
+    <t>\href{https://rr.peercommunityin.org/public/user_public_page?userId=1996}{Recommender} profile</t>
   </si>
 </sst>
 </file>
@@ -980,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1012,96 +1033,106 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E5" s="1" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1110,7 +1141,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1119,18 +1150,16 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1139,27 +1168,27 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1168,7 +1197,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1179,7 +1208,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1188,24 +1217,18 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1214,22 +1237,34 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -1245,6 +1280,20 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/service_en.xlsx
+++ b/data/service_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F7981E-A71F-4E94-A5C9-56036CEF8A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C576C3B3-82AC-4441-9087-F0D1033AF2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>what</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t>\href{https://rr.peercommunityin.org/public/user_public_page?userId=1996}{Recommender} profile</t>
+  </si>
+  <si>
+    <t>\href{https://royalsocietypublishing.org/journal/rsbl}{Biology Letters}</t>
   </si>
 </sst>
 </file>
@@ -1001,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,7 +1153,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1159,7 +1162,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1168,27 +1171,27 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1197,73 +1200,73 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1271,7 +1274,9 @@
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -1294,6 +1299,13 @@
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/service_en.xlsx
+++ b/data/service_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C576C3B3-82AC-4441-9087-F0D1033AF2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E973329-E80C-4068-B985-3DD083A6BA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>what</t>
   </si>
@@ -145,9 +145,6 @@
     <t>Since 2023</t>
   </si>
   <si>
-    <t>\href{https://rr.peercommunityin.org/}{PCI Registered Reports}</t>
-  </si>
-  <si>
     <t>Editorial team</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>\href{https://royalsocietypublishing.org/journal/rsbl}{Biology Letters}</t>
+  </si>
+  <si>
+    <t>\href{https://rr.peercommunityin.org/}{Peer Community In Registered Reports}</t>
   </si>
 </sst>
 </file>
@@ -708,9 +708,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -748,7 +748,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -854,7 +854,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -996,7 +996,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1004,10 +1004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3AFA9E8-48DD-493D-A757-B362F16614DE}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1036,7 +1036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -1044,13 +1044,13 @@
         <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -1099,7 +1099,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
@@ -1124,27 +1124,27 @@
         <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1153,7 +1153,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1162,7 +1162,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1171,7 +1171,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1180,27 +1180,27 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1209,73 +1209,73 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -1283,7 +1283,9 @@
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="E24" s="1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
@@ -1306,6 +1308,13 @@
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/service_en.xlsx
+++ b/data/service_en.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B2F0D4-E073-448A-91E7-3E4DFDC10EA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56340CBF-2C72-46EB-BE0C-4223C2FE7A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25740" yWindow="3720" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26070" yWindow="2730" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>\href{http://sumapsicologica.konradlorenz.edu.co/}{Summa Psicológica}</t>
   </si>
   <si>
-    <t>Publication Evaluation</t>
-  </si>
-  <si>
     <t>Since 2015</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B: \newline Biological Sciences}</t>
+  </si>
+  <si>
+    <t>Publication/Grant Evaluation</t>
   </si>
 </sst>
 </file>
@@ -434,8 +434,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,24 +686,24 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">

--- a/data/service_en.xlsx
+++ b/data/service_en.xlsx
@@ -1,26 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JDL_CV\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56340CBF-2C72-46EB-BE0C-4223C2FE7A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26070" yWindow="2730" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>what</t>
   </si>
@@ -37,144 +33,144 @@
     <t>why</t>
   </si>
   <si>
-    <t>Recommender (equivalent to Associate Editor)</t>
-  </si>
-  <si>
-    <t>Since 2023</t>
-  </si>
-  <si>
-    <t>\href{https://rr.peercommunityin.org/}{Peer Community In Registered Reports}</t>
+    <t xml:space="preserve">Recommender (equivalent to Associate Editor)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://rr.peercommunityin.org/}{Peer Community In Registered Reports}</t>
   </si>
   <si>
     <t>Recommender</t>
   </si>
   <si>
-    <t>Issue Stage 1 and Stage 2 recommendations</t>
-  </si>
-  <si>
-    <t>\href{https://rr.peercommunityin.org/public/user_public_page?userId=1996}{Recommender} profile</t>
-  </si>
-  <si>
-    <t>Guest Editor</t>
-  </si>
-  <si>
-    <t>2020 - 2021</t>
-  </si>
-  <si>
-    <t>\href{https://royalsocietypublishing.org/journal/rstb}{Philosophical Transactions of the Royal Society B: Biological Sciences}</t>
-  </si>
-  <si>
-    <t>Guest editorial team</t>
-  </si>
-  <si>
-    <t>Theme Issue \textbf{\textit{Voice modulation: from origin and mechanism to social impact}} (\href{https://royalsocietypublishing.org/toc/rstb/2021/376/1840}{\textbf{Parte 1}}, \href{https://royalsocietypublishing.org/toc/rstb/2022/377/1841}{\textbf{Parte 2}})</t>
-  </si>
-  <si>
-    <t>Edited by Juan David Leongómez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman \&amp; Jaroslava Varella Valentova</t>
-  </si>
-  <si>
-    <t>Review Editor</t>
-  </si>
-  <si>
-    <t>2019 - Present</t>
-  </si>
-  <si>
-    <t>\href{https://www.frontiersin.org/journals/psychology}{Frontiers in Psychology}</t>
-  </si>
-  <si>
-    <t>Editorial team</t>
-  </si>
-  <si>
-    <t>Specialty section on \href{https://www.frontiersin.org/journals/psychology/sections/evolutionary-psychology}{Evolutionary Psychology}</t>
-  </si>
-  <si>
-    <t>\href{https://loop.frontiersin.org/people/438954/overview}{Loop} profile</t>
-  </si>
-  <si>
-    <t>Journals Include</t>
-  </si>
-  <si>
-    <t>Since 2013</t>
-  </si>
-  <si>
-    <t>\textit{Ad Hoc} Reviewer</t>
+    <t xml:space="preserve">Issue Stage 1 and Stage 2 recommendations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://rr.peercommunityin.org/public/user_public_page?userId=1996}{Recommender} profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020 - 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rstb}{Philosophical Transactions of the Royal Society B: Biological Sciences}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest editorial team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theme Issue \textbf{\textit{Voice modulation: from origin and mechanism to social impact}} (\href{https://royalsocietypublishing.org/toc/rstb/2021/376/1840}{\textbf{Parte 1}}, \href{https://royalsocietypublishing.org/toc/rstb/2022/377/1841}{\textbf{Parte 2}})</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edited by Juan David Leongómez, Katarzyna Pisanski, David Reby, Disa Sauter, Nadine Lavan, Marcus Perlman \&amp; Jaroslava Varella Valentova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 - 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://www.frontiersin.org/journals/psychology}{Frontiers in Psychology}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Specialty section on \href{https://www.frontiersin.org/journals/psychology/sections/evolutionary-psychology}{Evolutionary Psychology}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://loop.frontiersin.org/people/438954/overview}{Loop} profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journals Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\textit{Ad Hoc} Reviewer</t>
   </si>
   <si>
     <t>Journals</t>
   </si>
   <si>
+    <t xml:space="preserve">\vspace{-4.0mm} \begin{multicols}{3}
+\href{https://rr.peercommunityin.org/}{Peer Community In Registered Reports}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B: \newline Biological Sciences}</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>\href{https://royalsocietypublishing.org/journal/rsos}{Royal Society Open Science}</t>
-  </si>
-  <si>
-    <t>\href{https://journals.plos.org/plosone/}{PLOS ONE}</t>
-  </si>
-  <si>
-    <t>\href{https://royalsocietypublishing.org/journal/rsbl}{Biology Letters}</t>
-  </si>
-  <si>
-    <t>\href{https://www.sciencedirect.com/journal/evolution-and-human-behavior}{Evolution and Human Behavior}</t>
-  </si>
-  <si>
-    <t>\href{https://www.nature.com/srep/}{Scientific Reports}</t>
+    <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rsos}{Royal Society Open Science}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://journals.plos.org/plosone/}{PLOS ONE}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rsbl}{Biology Letters}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://www.sciencedirect.com/journal/evolution-and-human-behavior}{Evolution and Human Behavior}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://www.nature.com/srep/}{Scientific Reports}</t>
   </si>
   <si>
     <t>\href{https://www.sciencedirect.com/journal/cortex}{Cortex}</t>
   </si>
   <si>
-    <t>\href{https://www.springer.com/journal/10919/}{Journal of Nonverbal Behavior}</t>
+    <t xml:space="preserve">\href{https://www.springer.com/journal/10919/}{Journal of Nonverbal Behavior}</t>
   </si>
   <si>
     <t>\href{https://journals.sagepub.com/home/pec}{Perception}</t>
   </si>
   <si>
-    <t>\href{https://www.tandfonline.com/journals/hbas20}{Basic and Applied Social Psychology}</t>
-  </si>
-  <si>
-    <t>\href{https://journals.sagepub.com/home/evp}{Evolutionary Psychology}</t>
-  </si>
-  <si>
-    <t>\href{http://sumapsicologica.konradlorenz.edu.co/}{Summa Psicológica}</t>
-  </si>
-  <si>
-    <t>Since 2015</t>
-  </si>
-  <si>
-    <t>Academic Reviewer</t>
-  </si>
-  <si>
-    <t>Colombian Institutions</t>
+    <t xml:space="preserve">\href{https://www.tandfonline.com/journals/hbas20}{Basic and Applied Social Psychology}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://journals.sagepub.com/home/evp}{Evolutionary Psychology}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{http://sumapsicologica.konradlorenz.edu.co/}{Summa Psicológica}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://ishe.org/human-ethology/}{Human Ethology}
+\end{multicols}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publication/Grant Evaluation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Academic Reviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colombian Institutions</t>
   </si>
   <si>
     <t>\href{https://minciencias.gov.co/}{Minciencias}</t>
   </si>
   <si>
-    <t>\href{https://unal.edu.co/}{Universidad Nacional de Colombia}</t>
-  </si>
-  <si>
-    <t>\vspace{-4.0mm} \begin{multicols}{3}
-\href{https://rr.peercommunityin.org/}{Peer Community In Registered Reports}</t>
-  </si>
-  <si>
-    <t>\href{https://ishe.org/human-ethology/}{Human Ethology}
-\end{multicols}</t>
-  </si>
-  <si>
-    <t>\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B: \newline Biological Sciences}</t>
-  </si>
-  <si>
-    <t>Publication/Grant Evaluation</t>
+    <t xml:space="preserve">\href{https://unal.edu.co/}{Universidad Nacional de Colombia}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
@@ -190,19 +186,22 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -222,8 +221,291 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -426,28 +708,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.140625" customWidth="1"/>
-    <col min="4" max="4" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="109" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="25.28515625"/>
+    <col bestFit="1" customWidth="1" min="2" max="2" width="17.7109375"/>
+    <col customWidth="1" min="3" max="3" width="32.140625"/>
+    <col bestFit="1" customWidth="1" min="4" max="4" width="21.5703125"/>
+    <col customWidth="1" min="5" max="5" width="109"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,7 +744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" ht="42.75">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -481,7 +761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -490,7 +770,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="4" ht="57">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -507,7 +787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" ht="28.5">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -516,11 +796,11 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" ht="42.75">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -533,12 +813,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" ht="28.5">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -552,107 +832,107 @@
         <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="30">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -660,83 +940,83 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" ht="28.5">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" ht="28.5">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -744,7 +1024,9 @@
       <c r="E28" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data/service_en.xlsx
+++ b/data/service_en.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>what</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t xml:space="preserve">\href{https://journals.sagepub.com/home/evp}{Evolutionary Psychology}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://www.apa.org/pubs/journals/pac}{Peace and Conflict: Journal of \newline Peace Psychology}</t>
   </si>
   <si>
     <t xml:space="preserve">\href{http://sumapsicologica.konradlorenz.edu.co/}{Summa Psicológica}</t>
@@ -714,7 +717,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="E7" zoomScale="100" workbookViewId="0">
       <selection activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -800,7 +803,7 @@
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -840,7 +843,7 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -951,46 +954,46 @@
     </row>
     <row r="21">
       <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" ht="28.5">
+    <row r="22">
       <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="23" ht="28.5">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="1" t="s">
+    </row>
+    <row r="24" ht="28.5">
+      <c r="A24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
         <v>47</v>
       </c>
@@ -1000,7 +1003,9 @@
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="E25" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1"/>
@@ -1022,6 +1027,13 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>

--- a/data/service_en.xlsx
+++ b/data/service_en.xlsx
@@ -1,36 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>when</t>
-  </si>
-  <si>
-    <t>with</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>why</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+  <si>
+    <t xml:space="preserve">what</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when</t>
+  </si>
+  <si>
+    <t xml:space="preserve">with</t>
+  </si>
+  <si>
+    <t xml:space="preserve">where</t>
+  </si>
+  <si>
+    <t xml:space="preserve">why</t>
   </si>
   <si>
     <t xml:space="preserve">Recommender (equivalent to Associate Editor)</t>
@@ -42,7 +46,7 @@
     <t xml:space="preserve">\href{https://rr.peercommunityin.org/}{Peer Community In Registered Reports}</t>
   </si>
   <si>
-    <t>Recommender</t>
+    <t xml:space="preserve">Recommender</t>
   </si>
   <si>
     <t xml:space="preserve">Issue Stage 1 and Stage 2 recommendations</t>
@@ -96,7 +100,7 @@
     <t xml:space="preserve">\textit{Ad Hoc} Reviewer</t>
   </si>
   <si>
-    <t>Journals</t>
+    <t xml:space="preserve">Journals</t>
   </si>
   <si>
     <t xml:space="preserve">\vspace{-4.0mm} \begin{multicols}{3}
@@ -106,12 +110,46 @@
     <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B: \newline Biological Sciences}</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rstb}{Philosophical Transactions of the Royal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">\newline </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Society B: Biological Sciences}</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rsos}{Royal Society Open Science}</t>
   </si>
   <si>
+    <t xml:space="preserve">\href{https://nyaspubs.onlinelibrary.wiley.com/journal/17496632}{Annals of the New York Academy of Sciences}</t>
+  </si>
+  <si>
     <t xml:space="preserve">\href{https://journals.plos.org/plosone/}{PLOS ONE}</t>
   </si>
   <si>
@@ -124,13 +162,13 @@
     <t xml:space="preserve">\href{https://www.nature.com/srep/}{Scientific Reports}</t>
   </si>
   <si>
-    <t>\href{https://www.sciencedirect.com/journal/cortex}{Cortex}</t>
+    <t xml:space="preserve">\href{https://www.sciencedirect.com/journal/cortex}{Cortex}</t>
   </si>
   <si>
     <t xml:space="preserve">\href{https://www.springer.com/journal/10919/}{Journal of Nonverbal Behavior}</t>
   </si>
   <si>
-    <t>\href{https://journals.sagepub.com/home/pec}{Perception}</t>
+    <t xml:space="preserve">\href{https://journals.sagepub.com/home/pec}{Perception}</t>
   </si>
   <si>
     <t xml:space="preserve">\href{https://www.tandfonline.com/journals/hbas20}{Basic and Applied Social Psychology}</t>
@@ -161,7 +199,7 @@
     <t xml:space="preserve">Colombian Institutions</t>
   </si>
   <si>
-    <t>\href{https://minciencias.gov.co/}{Minciencias}</t>
+    <t xml:space="preserve">\href{https://minciencias.gov.co/}{Minciencias}</t>
   </si>
   <si>
     <t xml:space="preserve">\href{https://unal.edu.co/}{Universidad Nacional de Colombia}</t>
@@ -170,13 +208,38 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,379 +251,122 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 2013 - 2022 Theme">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -570,39 +376,35 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -610,64 +412,37 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -677,7 +452,6 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill>
@@ -685,7 +459,6 @@
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -693,7 +466,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -701,36 +473,39 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" zoomScale="100" workbookViewId="0">
-      <selection activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.28515625"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="17.7109375"/>
-    <col customWidth="1" min="3" max="3" width="32.140625"/>
-    <col bestFit="1" customWidth="1" min="4" max="4" width="21.5703125"/>
-    <col customWidth="1" min="5" max="5" width="109"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="109"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,7 +522,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" ht="42.75">
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,7 +539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -773,7 +548,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="57">
+    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -790,7 +565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="28.5">
+    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -799,7 +574,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" ht="42.75">
+    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -816,12 +591,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="8" ht="28.5">
+    <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -838,7 +613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" ht="30">
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -847,36 +622,36 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -885,7 +660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -894,7 +669,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -903,18 +678,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1"/>
-      <c r="B16" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -923,56 +696,56 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1"/>
-      <c r="B19" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22">
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" ht="28.5">
+    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -981,64 +754,90 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" ht="28.5">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25">
+    </row>
+    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27">
+      <c r="E26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28">
+      <c r="E27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
   </sheetData>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <hyperlinks>
+    <hyperlink ref="E12" r:id="rId1" display="https://nyaspubs.onlinelibrary.wiley.com/journal/17496632"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/service_en.xlsx
+++ b/data/service_en.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="57">
   <si>
     <t xml:space="preserve">what</t>
   </si>
@@ -37,6 +37,27 @@
     <t xml:space="preserve">why</t>
   </si>
   <si>
+    <t xml:space="preserve">Data Editor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Since 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Editorial team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensuring compliance with data and code sharing standards prior to acceptance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verifying that datasets, code, and materials are complete, accessible, and consistent with reported results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advising authors on adjustments needed to meet open data policies</t>
+  </si>
+  <si>
     <t xml:space="preserve">Recommender (equivalent to Associate Editor)</t>
   </si>
   <si>
@@ -80,9 +101,6 @@
   </si>
   <si>
     <t xml:space="preserve">\href{https://www.frontiersin.org/journals/psychology}{Frontiers in Psychology}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Editorial team</t>
   </si>
   <si>
     <t xml:space="preserve">Specialty section on \href{https://www.frontiersin.org/journals/psychology/sections/evolutionary-psychology}{Evolutionary Psychology}</t>
@@ -110,35 +128,7 @@
     <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rspb}{Proceedings of the Royal Society B: \newline Biological Sciences}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rstb}{Philosophical Transactions of the Royal </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">\newline </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Society B: Biological Sciences}</t>
-    </r>
+    <t xml:space="preserve">\href{https://royalsocietypublishing.org/journal/rstb}{Philosophical Transactions of the Royal \newline Society B: Biological Sciences}</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -239,7 +229,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -284,20 +275,24 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -490,347 +485,383 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="109"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="32.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="109"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="2" t="s">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E10" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+    <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>34</v>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
-        <v>35</v>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1" t="s">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>19</v>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>41</v>
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1" t="s">
-        <v>42</v>
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1" t="s">
-        <v>44</v>
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="1" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1" t="s">
+    <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+    <row r="29" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" display="https://nyaspubs.onlinelibrary.wiley.com/journal/17496632"/>
+    <hyperlink ref="E15" r:id="rId1" display="\href{https://nyaspubs.onlinelibrary.wiley.com/journal/17496632}{Annals of the New York Academy of Sciences}"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
